--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405FCA7-FA91-4BFA-9F7A-7E85FBEC882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38C920-F9B6-42AE-B042-6E2236EEE96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>BPA Diameter</t>
   </si>
@@ -304,13 +304,16 @@
     <t>a3</t>
   </si>
   <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>redo- optimization with pressurizing and depressurizing separated</t>
+    <t>Parameters(Pressurizing)</t>
+  </si>
+  <si>
+    <t>Parameters(Depressurizing)</t>
+  </si>
+  <si>
+    <t>mux</t>
+  </si>
+  <si>
+    <t>MUX</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -575,17 +578,79 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5945,299 +6010,387 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13465C1-23EC-4857-B656-D16475C8BE6C}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="37"/>
+    <col min="5" max="5" width="8.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="37"/>
+    <col min="11" max="11" width="8.85546875" style="37" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="37"/>
+    <col min="13" max="13" width="17.140625" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="56"/>
+      <c r="I1" s="35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="16">
-        <v>0.64695999999999998</v>
-      </c>
-      <c r="C3" s="16">
-        <v>604.85</v>
-      </c>
-      <c r="D3" s="16">
-        <v>-12.321999999999999</v>
-      </c>
-      <c r="E3" s="21">
-        <v>-58.642000000000003</v>
-      </c>
-      <c r="F3" s="38">
-        <v>110610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="60">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="43">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1.0972</v>
+      </c>
+      <c r="E3" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="45">
+        <v>-6.1199999999999997E-2</v>
+      </c>
+      <c r="G3" s="46">
+        <v>73791</v>
+      </c>
+      <c r="H3" s="60">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="43">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J3" s="44">
+        <v>-1.3055000000000001</v>
+      </c>
+      <c r="K3" s="44">
+        <v>-4.5499999999999999E-2</v>
+      </c>
+      <c r="L3" s="45">
+        <v>-4.7100000000000003E-2</v>
+      </c>
+      <c r="M3" s="46">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="16">
-        <v>-1537.6</v>
-      </c>
-      <c r="C4" s="16">
-        <v>-46146</v>
-      </c>
-      <c r="D4" s="16">
-        <v>-1106.2</v>
-      </c>
-      <c r="E4" s="39">
-        <v>-162.19</v>
-      </c>
-      <c r="F4">
-        <v>99683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="B4" s="60">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="43">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D4" s="44">
+        <v>-2.0287999999999999</v>
+      </c>
+      <c r="E4" s="44">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F4" s="46">
+        <v>-0.13159999999999999</v>
+      </c>
+      <c r="G4" s="46">
+        <v>22660</v>
+      </c>
+      <c r="I4" s="43">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="J4" s="44">
+        <v>346.46629999999999</v>
+      </c>
+      <c r="K4" s="44">
+        <v>21.075299999999999</v>
+      </c>
+      <c r="L4" s="46">
+        <v>-102.5407</v>
+      </c>
+      <c r="M4" s="47">
+        <v>495.05130000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16">
-        <v>82.831000000000003</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1233.7</v>
-      </c>
-      <c r="D5" s="16">
-        <v>206.34</v>
-      </c>
-      <c r="E5" s="39">
-        <v>-177.7</v>
-      </c>
-      <c r="F5" s="38">
-        <v>110100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="43">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="D5" s="44">
+        <v>984.52890000000002</v>
+      </c>
+      <c r="E5" s="44">
+        <v>72.691699999999997</v>
+      </c>
+      <c r="F5" s="46">
+        <v>-203.471</v>
+      </c>
+      <c r="G5" s="46">
+        <v>39923</v>
+      </c>
+      <c r="I5" s="43">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="J5" s="44">
+        <v>817.99400000000003</v>
+      </c>
+      <c r="K5" s="44">
+        <v>77.477000000000004</v>
+      </c>
+      <c r="L5" s="46">
+        <v>-153.76070000000001</v>
+      </c>
+      <c r="M5" s="46">
+        <v>218.4769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="37">
-        <v>49.866999999999997</v>
-      </c>
-      <c r="C6" s="37">
-        <v>493.21</v>
-      </c>
-      <c r="D6" s="7">
-        <v>122.6</v>
-      </c>
-      <c r="E6" s="40">
-        <v>-224.61</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="48">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="D6" s="49">
+        <v>234.99780000000001</v>
+      </c>
+      <c r="E6" s="50">
+        <v>246.37799999999999</v>
+      </c>
+      <c r="F6" s="51">
+        <v>-236.8689</v>
+      </c>
+      <c r="G6" s="61">
         <v>92490</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="55" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="54" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="54" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="54" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="54" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="55" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38C920-F9B6-42AE-B042-6E2236EEE96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DEDF7-DCCA-4D8D-918F-C34ED3B1C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>BPA Diameter</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>MUX</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to redo red highlighted part (wrong li and lo were used) </t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -598,36 +604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,7 +626,34 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6010,10 +6013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13465C1-23EC-4857-B656-D16475C8BE6C}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,8 +6033,8 @@
     <col min="14" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -6040,17 +6043,17 @@
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
-      <c r="G1" s="56"/>
+      <c r="G1" s="46"/>
       <c r="I1" s="35" t="s">
         <v>90</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -6089,304 +6092,313 @@
       <c r="M2" s="42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="N2" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="50">
         <v>1000</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="51">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="52">
         <v>1.0972</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="52">
         <v>0.01</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="53">
         <v>-6.1199999999999997E-2</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="54">
         <v>73791</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="55">
         <v>1000</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="51">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="52">
         <v>-1.3055000000000001</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="52">
         <v>-4.5499999999999999E-2</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="53">
         <v>-4.7100000000000003E-2</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="54">
         <v>10183</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="50">
         <v>1000</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="51">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="52">
         <v>-2.0287999999999999</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="52">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="54">
         <v>-0.13159999999999999</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="54">
         <v>22660</v>
       </c>
-      <c r="I4" s="43">
+      <c r="H4" s="56"/>
+      <c r="I4" s="51">
         <v>0.58560000000000001</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="52">
         <v>346.46629999999999</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="52">
         <v>21.075299999999999</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="54">
         <v>-102.5407</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="53">
         <v>495.05130000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="43">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51">
         <v>0.60609999999999997</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="52">
         <v>984.52890000000002</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="52">
         <v>72.691699999999997</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="54">
         <v>-203.471</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="54">
         <v>39923</v>
       </c>
-      <c r="I5" s="43">
+      <c r="H5" s="56"/>
+      <c r="I5" s="51">
         <v>0.52080000000000004</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="52">
         <v>817.99400000000003</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="52">
         <v>77.477000000000004</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="54">
         <v>-153.76070000000001</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="54">
         <v>218.4769</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="57">
         <v>0.54510000000000003</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="58">
         <v>234.99780000000001</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="58">
         <v>246.37799999999999</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="59">
         <v>-236.8689</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="59">
         <v>92490</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="45" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="44" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="43" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="45" t="s">
         <v>75</v>
       </c>
     </row>

--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DEDF7-DCCA-4D8D-918F-C34ED3B1C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF38B0-FF9A-4F10-A518-64F0E7F10530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>BPA Diameter</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t xml:space="preserve">Need to redo red highlighted part (wrong li and lo were used) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {[     0.6187 -119.0889 5.6971 -40.2975]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {[87.8422 2.6166e+03 124.6828 -108.6391]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {[   36.0653 532.8312 95.4642 -155.7685]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {[   14.3226 139.6986 62.3122 -107.7226]}</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -623,37 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6016,7 +6001,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,144 +6088,45 @@
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="51">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D3" s="52">
-        <v>1.0972</v>
-      </c>
-      <c r="E3" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="53">
-        <v>-6.1199999999999997E-2</v>
-      </c>
-      <c r="G3" s="54">
-        <v>73791</v>
-      </c>
-      <c r="H3" s="55">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="51">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="J3" s="52">
-        <v>-1.3055000000000001</v>
-      </c>
-      <c r="K3" s="52">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="L3" s="53">
-        <v>-4.7100000000000003E-2</v>
-      </c>
-      <c r="M3" s="54">
-        <v>10183</v>
-      </c>
+      <c r="I3" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="51">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D4" s="52">
-        <v>-2.0287999999999999</v>
-      </c>
-      <c r="E4" s="52">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="F4" s="54">
-        <v>-0.13159999999999999</v>
-      </c>
-      <c r="G4" s="54">
-        <v>22660</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="51">
-        <v>0.58560000000000001</v>
-      </c>
-      <c r="J4" s="52">
-        <v>346.46629999999999</v>
-      </c>
-      <c r="K4" s="52">
-        <v>21.075299999999999</v>
-      </c>
-      <c r="L4" s="54">
-        <v>-102.5407</v>
-      </c>
-      <c r="M4" s="53">
-        <v>495.05130000000003</v>
-      </c>
+      <c r="I4" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51">
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="D5" s="52">
-        <v>984.52890000000002</v>
-      </c>
-      <c r="E5" s="52">
-        <v>72.691699999999997</v>
-      </c>
-      <c r="F5" s="54">
-        <v>-203.471</v>
-      </c>
-      <c r="G5" s="54">
-        <v>39923</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="51">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="J5" s="52">
-        <v>817.99400000000003</v>
-      </c>
-      <c r="K5" s="52">
-        <v>77.477000000000004</v>
-      </c>
-      <c r="L5" s="54">
-        <v>-153.76070000000001</v>
-      </c>
-      <c r="M5" s="54">
-        <v>218.4769</v>
-      </c>
+      <c r="I5" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="57">
-        <v>0.54510000000000003</v>
-      </c>
-      <c r="D6" s="58">
-        <v>234.99780000000001</v>
-      </c>
-      <c r="E6" s="58">
-        <v>246.37799999999999</v>
-      </c>
-      <c r="F6" s="59">
-        <v>-236.8689</v>
-      </c>
-      <c r="G6" s="59">
-        <v>92490</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="I6" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
@@ -6403,6 +6289,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF38B0-FF9A-4F10-A518-64F0E7F10530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4322AF2-2897-411A-98AC-F937B2E07FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -635,10 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6001,7 +6001,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6088,45 +6088,45 @@
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">

--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4322AF2-2897-411A-98AC-F937B2E07FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C31404-16BB-4A92-B942-EE64F26BEF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -639,6 +645,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6001,7 +6016,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6204,87 +6219,87 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="54" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="52" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="54" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="53" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="54" t="s">
         <v>75</v>
       </c>
     </row>

--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C31404-16BB-4A92-B942-EE64F26BEF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB03ED-A784-48C4-A7D1-0ABABB935AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
@@ -641,12 +641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,6 +648,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6016,7 +6016,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,45 +6103,45 @@
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
@@ -6219,87 +6219,87 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="51" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="51" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="52" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="51" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="52" t="s">
         <v>75</v>
       </c>
     </row>

--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB03ED-A784-48C4-A7D1-0ABABB935AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5187EE87-4C39-42B3-87A1-6FEB52DCCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4718,14 +4718,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -5556,8 +5556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3326FA8-84A5-4919-8DDB-96A6DA3836F2}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,7 +6015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13465C1-23EC-4857-B656-D16475C8BE6C}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/DataCollection/Optimization_Parameters.xlsx
+++ b/DataCollection/Optimization_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5187EE87-4C39-42B3-87A1-6FEB52DCCF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC11AB2-C4AF-4746-A323-833AB002A827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{9DEA6101-A446-4647-B876-48EF8758AC2E}"/>
   </bookViews>
@@ -5556,7 +5556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3326FA8-84A5-4919-8DDB-96A6DA3836F2}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
